--- a/Documentation/Preliminary Release/Updated Project Plan (Gantt chart).xlsx
+++ b/Documentation/Preliminary Release/Updated Project Plan (Gantt chart).xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\studenthome.cis.strath.ac.uk\homes\system\Windows\Desktop\Preliminary Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\system\Windows\Desktop\CS308\Gizmoball - MW1\Documentation\Preliminary Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -428,6 +428,34 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Prototype 3 Implementation (Load Board) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prototype 4 Implementation (Flipper)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Thomas Mclaughlin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Prototype 2 Implementation (Collisions)</t>
     </r>
     <r>
@@ -437,35 +465,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (David T. Pocock/Greig Cairns/Tomas Šukevičius)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Prototype 3 Implementation (Load Board) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Greig Cairns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Prototype 4 Implementation (Flipper)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Thomas Mclaughlin/Chris Reilly)</t>
+      <t xml:space="preserve"> (David T. Pocock)</t>
     </r>
   </si>
 </sst>
@@ -1860,7 +1860,7 @@
   <dimension ref="B1:EQ34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="25" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C25" s="32">
         <v>3</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="26" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="32">
         <v>5</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="27" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="32">
         <v>3</v>

--- a/Documentation/Preliminary Release/Updated Project Plan (Gantt chart).xlsx
+++ b/Documentation/Preliminary Release/Updated Project Plan (Gantt chart).xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\system\Windows\Desktop\CS308\Gizmoball - MW1\Documentation\Preliminary Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\studenthome.cis.strath.ac.uk\homes\system\Windows\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,6 +27,7 @@
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -157,20 +158,6 @@
         <family val="2"/>
       </rPr>
       <t>(Tomas Šukevičius/Thomas Mclaughlin)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">View Implementation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Greig Cairns)</t>
     </r>
   </si>
   <si>
@@ -208,41 +195,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Controller Implementation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Chris Reilly/Tomas Šukevičius)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Model Implementation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(David T. Pocock/Thomas Mclaughlin)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Project Finalisation </t>
     </r>
     <r>
@@ -312,8 +264,95 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Updated Project Plan</t>
+    <t>Gizmoball Project Plan - Group MW1</t>
+  </si>
+  <si>
+    <r>
+      <t>Revised Class Diagram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (David T. Pocock/Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Validation Testing Strategy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Chris Reilly/Tomas Šukevičius)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Physics package integration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>David T. Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prototype 1 Implementation (Absorber)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Chris Reilly)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prototype 3 Implementation (Load Board) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prototype 4 Implementation (Flipper)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Thomas Mclaughlin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prototype 2 Implementation (Collisions)</t>
     </r>
     <r>
       <rPr>
@@ -326,11 +365,22 @@
     </r>
   </si>
   <si>
-    <t>Gizmoball Project Plan - Group MW1</t>
-  </si>
-  <si>
-    <r>
-      <t>Revised Class Diagram</t>
+    <r>
+      <t>JUnit Testing Strategy Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Tommy Mclaughlin/Chris Reilly)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Detail of Revision</t>
     </r>
     <r>
       <rPr>
@@ -344,7 +394,7 @@
   </si>
   <si>
     <r>
-      <t>Detail of Revision</t>
+      <t>Updated Project Plan</t>
     </r>
     <r>
       <rPr>
@@ -353,12 +403,18 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (Thomas Mclaughlin)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Class Specification</t>
+      <t xml:space="preserve"> (Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ball </t>
     </r>
     <r>
       <rPr>
@@ -366,106 +422,732 @@
         <color theme="1" tint="0.24994659260841701"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Thomas Mclaughlin)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Validation Testing Strategy</t>
+      <t>(David T. Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CircleBumper </t>
     </r>
     <r>
       <rPr>
         <sz val="13"/>
         <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
+        <rFont val="Corbel"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> (Chris Reilly/Tomas Šukevičius)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>JUnit Testing Strategy Description</t>
+      <t>(David T. Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SquareBumper</t>
     </r>
     <r>
       <rPr>
         <sz val="13"/>
         <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
+        <rFont val="Corbel"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> (Tomas Šukevičius/Chris Reilly)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Physics package integration </t>
+      <t xml:space="preserve">  (David T. Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TriangleBumper</t>
     </r>
     <r>
       <rPr>
         <sz val="13"/>
         <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
+        <rFont val="Corbel"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
-      <t>David T. Pocock)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Prototype 1 Implementation (Absorber)</t>
+      <t xml:space="preserve"> (David T. Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LFlipper </t>
     </r>
     <r>
       <rPr>
         <sz val="13"/>
         <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
+        <rFont val="Corbel"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> (Chris Reilly)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Prototype 3 Implementation (Load Board) </t>
+      <t>(Thomas Mclaughlin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rflipper</t>
     </r>
     <r>
       <rPr>
         <sz val="13"/>
         <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
+        <rFont val="Corbel"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
-      <t>(Greig Cairns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Prototype 4 Implementation (Flipper)</t>
+      <t xml:space="preserve"> (Thomas Mclaughlin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Collisions  </t>
     </r>
     <r>
       <rPr>
         <sz val="13"/>
         <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
+        <rFont val="Corbel"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> (Thomas Mclaughlin)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Prototype 2 Implementation (Collisions)</t>
+      <t>(David T. Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Absorber </t>
     </r>
     <r>
       <rPr>
         <sz val="13"/>
         <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
+        <rFont val="Corbel"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> (David T. Pocock)</t>
+      <t>(Chris Reilly)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Walls </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Model </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Greig Cairns, David T.Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Save </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> (Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Load  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LoadBuild </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> (Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Board </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Greig Cairns, David T.Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BuildBoard </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PlayBoard </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Greig Cairns, David T.Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BuildGUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PlayGUI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">  (Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IGUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(David T.Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AddAbsorberL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Chris Reilly)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AddBallL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(David T.Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AddCircleBumperL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(David T.Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key Connection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Tomas Šukevičius, Chris Reilly, Thomas Mclaughlin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GizmoConnection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Tomas Šukevičius, Chris Reilly, Thomas Mclaughlin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AddSquareBumperL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(David T.Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AddTriangleBumperL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(David T.Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AddLFlipperL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> (Thomas Mclaughlin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AddRFlipperL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> (Thomas Mclaughlin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KeyConnectGizmoL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Chris Reilly, Thomas Mclaughlin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KeyDisconnectGizmoL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Chris Reilly, Thomas Mclaughlin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DisconnectGizmoL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Tomas Šukevičius,Thomas Mclaughlin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ConnectGizmoL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Tomas Šukevičius, Chris Reilly)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">StartL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(David T.Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PauseL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(David T.Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TickL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(David T.Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ReloadL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ExitL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LoadL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SaveL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FrictionL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(David T.Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GravityL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Junit Testing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Tomas Šukevičius, rest of group when required)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MoveGizmoL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(David T.Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RotateGizmoL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(David T.Pocock)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DeleteGizmoL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ClearBoardL  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Greig Cairns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SwitchToBuildModeL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> (Chris Reilly, Thomas Mclaughlin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SwitchToPlayModeL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> (Chris Reilly, Thomas Mclaughlin)</t>
     </r>
   </si>
 </sst>
@@ -473,7 +1155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -608,20 +1290,78 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="13"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,6 +1424,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,7 +1665,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,9 +1703,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,20 +1756,38 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1049,11 +1810,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1077,7 +1841,7 @@
     <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="201">
     <dxf>
       <fill>
         <patternFill>
@@ -1420,6 +2184,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1431,17 +2223,2353 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
           <color theme="7"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
         <vertical/>
         <horizontal/>
       </border>
@@ -1857,17 +4985,20 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:EQ34"/>
+  <dimension ref="B1:EQ84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="79.875" style="2" customWidth="1"/>
-    <col min="3" max="6" width="1.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.375" style="4" customWidth="1"/>
     <col min="8" max="17" width="9.375" style="1" customWidth="1"/>
     <col min="18" max="18" width="2.75" style="1"/>
@@ -1878,7 +5009,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="60" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B1" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -1887,49 +5018,49 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="11">
-        <v>3</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
     </row>
     <row r="3" spans="2:18" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="43" t="s">
+      <c r="E3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="6"/>
@@ -1944,12 +5075,12 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1980,96 +5111,104 @@
       <c r="Q4" s="3">
         <v>10</v>
       </c>
-      <c r="R4" s="19"/>
+      <c r="R4" s="18"/>
     </row>
     <row r="5" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="34">
+        <v>1</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34">
+        <v>2</v>
+      </c>
+      <c r="F5" s="34">
+        <v>3</v>
+      </c>
+      <c r="G5" s="30">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5"/>
+    </row>
+    <row r="6" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="31">
-        <v>1</v>
-      </c>
-      <c r="D5" s="31">
-        <v>1</v>
-      </c>
-      <c r="E5" s="31">
-        <v>2</v>
-      </c>
-      <c r="F5" s="31">
-        <v>3</v>
-      </c>
-      <c r="G5" s="34">
-        <v>1</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5"/>
-    </row>
-    <row r="6" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="34">
-        <v>1</v>
-      </c>
-      <c r="H6" s="25"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28"/>
+      <c r="C6" s="34">
+        <v>1</v>
+      </c>
+      <c r="D6" s="34">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34">
+        <v>1</v>
+      </c>
+      <c r="F6" s="34">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="27"/>
       <c r="R6"/>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="32">
-        <v>1</v>
-      </c>
-      <c r="D7" s="32">
-        <v>3</v>
-      </c>
-      <c r="E7" s="32">
-        <v>1</v>
-      </c>
-      <c r="F7" s="32">
-        <v>3</v>
-      </c>
-      <c r="G7" s="35">
-        <v>1</v>
-      </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="C7" s="35">
+        <v>1</v>
+      </c>
+      <c r="D7" s="35">
+        <v>3</v>
+      </c>
+      <c r="E7" s="35">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35">
+        <v>3</v>
+      </c>
+      <c r="G7" s="31">
+        <v>1</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="R7"/>
     </row>
     <row r="8" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="32">
-        <v>1</v>
-      </c>
-      <c r="D8" s="32">
-        <v>3</v>
-      </c>
-      <c r="E8" s="32">
-        <v>1</v>
-      </c>
-      <c r="F8" s="32">
-        <v>3</v>
-      </c>
-      <c r="G8" s="35">
+      <c r="C8" s="35">
+        <v>1</v>
+      </c>
+      <c r="D8" s="35">
+        <v>3</v>
+      </c>
+      <c r="E8" s="35">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35">
+        <v>3</v>
+      </c>
+      <c r="G8" s="31">
         <v>1</v>
       </c>
       <c r="R8"/>
@@ -2078,86 +5217,86 @@
       <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="35">
         <v>2</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="35">
         <v>2</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="35">
         <v>2</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="35">
         <v>2</v>
       </c>
-      <c r="G9" s="35">
-        <v>1</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="G9" s="31">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="J9" s="16"/>
       <c r="R9"/>
     </row>
     <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32">
-        <v>3</v>
-      </c>
-      <c r="D10" s="32">
-        <v>1</v>
-      </c>
-      <c r="E10" s="32">
-        <v>3</v>
-      </c>
-      <c r="F10" s="32">
-        <v>1</v>
-      </c>
-      <c r="G10" s="35">
-        <v>1</v>
-      </c>
-      <c r="J10" s="27"/>
+      <c r="C10" s="35">
+        <v>3</v>
+      </c>
+      <c r="D10" s="35">
+        <v>1</v>
+      </c>
+      <c r="E10" s="35">
+        <v>3</v>
+      </c>
+      <c r="F10" s="35">
+        <v>1</v>
+      </c>
+      <c r="G10" s="31">
+        <v>1</v>
+      </c>
+      <c r="J10" s="26"/>
       <c r="R10"/>
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="32">
-        <v>1</v>
-      </c>
-      <c r="D11" s="32">
+      <c r="C11" s="35">
+        <v>1</v>
+      </c>
+      <c r="D11" s="35">
         <v>2</v>
       </c>
-      <c r="E11" s="32">
-        <v>1</v>
-      </c>
-      <c r="F11" s="32">
+      <c r="E11" s="35">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="35">
-        <v>1</v>
-      </c>
-      <c r="J11" s="26"/>
+      <c r="G11" s="31">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25"/>
       <c r="R11"/>
     </row>
     <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="32">
-        <v>1</v>
-      </c>
-      <c r="D12" s="32">
-        <v>3</v>
-      </c>
-      <c r="E12" s="32">
-        <v>1</v>
-      </c>
-      <c r="F12" s="32">
-        <v>3</v>
-      </c>
-      <c r="G12" s="35">
+      <c r="C12" s="35">
+        <v>1</v>
+      </c>
+      <c r="D12" s="35">
+        <v>3</v>
+      </c>
+      <c r="E12" s="35">
+        <v>1</v>
+      </c>
+      <c r="F12" s="35">
+        <v>3</v>
+      </c>
+      <c r="G12" s="31">
         <v>1</v>
       </c>
       <c r="R12"/>
@@ -2166,428 +5305,1426 @@
       <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="32">
-        <v>1</v>
-      </c>
-      <c r="D13" s="32">
-        <v>3</v>
-      </c>
-      <c r="E13" s="32">
-        <v>1</v>
-      </c>
-      <c r="F13" s="32">
-        <v>3</v>
-      </c>
-      <c r="G13" s="35">
+      <c r="C13" s="35">
+        <v>1</v>
+      </c>
+      <c r="D13" s="35">
+        <v>3</v>
+      </c>
+      <c r="E13" s="35">
+        <v>1</v>
+      </c>
+      <c r="F13" s="35">
+        <v>3</v>
+      </c>
+      <c r="G13" s="31">
         <v>1</v>
       </c>
       <c r="R13"/>
     </row>
     <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="32">
-        <v>1</v>
-      </c>
-      <c r="D14" s="32">
-        <v>3</v>
-      </c>
-      <c r="E14" s="32">
-        <v>1</v>
-      </c>
-      <c r="F14" s="32">
-        <v>3</v>
-      </c>
-      <c r="G14" s="35">
+        <v>19</v>
+      </c>
+      <c r="C14" s="35">
+        <v>1</v>
+      </c>
+      <c r="D14" s="35">
+        <v>3</v>
+      </c>
+      <c r="E14" s="35">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35">
+        <v>3</v>
+      </c>
+      <c r="G14" s="31">
         <v>1</v>
       </c>
       <c r="R14"/>
     </row>
     <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="32">
+        <v>24</v>
+      </c>
+      <c r="C15" s="35">
         <v>4</v>
       </c>
-      <c r="D15" s="32">
-        <v>7</v>
-      </c>
-      <c r="E15" s="32">
+      <c r="D15" s="35">
+        <v>3</v>
+      </c>
+      <c r="E15" s="35">
         <v>4</v>
       </c>
-      <c r="F15" s="32">
-        <v>7</v>
-      </c>
-      <c r="G15" s="35">
-        <v>1</v>
-      </c>
+      <c r="F15" s="35">
+        <v>3</v>
+      </c>
+      <c r="G15" s="31">
+        <v>1</v>
+      </c>
+      <c r="K15" s="32"/>
       <c r="R15"/>
     </row>
     <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="32">
+        <v>32</v>
+      </c>
+      <c r="C16" s="35">
+        <v>5</v>
+      </c>
+      <c r="D16" s="35">
+        <v>2</v>
+      </c>
+      <c r="E16" s="35">
+        <v>5</v>
+      </c>
+      <c r="F16" s="35">
+        <v>2</v>
+      </c>
+      <c r="G16" s="31">
+        <v>1</v>
+      </c>
+      <c r="K16" s="32"/>
+      <c r="R16"/>
+    </row>
+    <row r="17" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="35">
         <v>4</v>
       </c>
-      <c r="D16" s="32">
-        <v>7</v>
-      </c>
-      <c r="E16" s="32">
+      <c r="D17" s="35">
+        <v>3</v>
+      </c>
+      <c r="E17" s="35">
         <v>4</v>
       </c>
-      <c r="F16" s="32">
-        <v>7</v>
-      </c>
-      <c r="G16" s="35">
-        <v>1</v>
-      </c>
-      <c r="R16"/>
-    </row>
-    <row r="17" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="32">
-        <v>4</v>
-      </c>
-      <c r="D17" s="32">
-        <v>7</v>
-      </c>
-      <c r="E17" s="32">
-        <v>4</v>
-      </c>
-      <c r="F17" s="32">
-        <v>7</v>
-      </c>
-      <c r="G17" s="35">
+      <c r="F17" s="35">
+        <v>3</v>
+      </c>
+      <c r="G17" s="31">
         <v>1</v>
       </c>
       <c r="R17"/>
     </row>
     <row r="18" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="32">
-        <v>4</v>
-      </c>
-      <c r="D18" s="32">
-        <v>3</v>
-      </c>
-      <c r="E18" s="32">
-        <v>4</v>
-      </c>
-      <c r="F18" s="32">
-        <v>3</v>
-      </c>
-      <c r="G18" s="35">
+        <v>31</v>
+      </c>
+      <c r="C18" s="36">
+        <v>5</v>
+      </c>
+      <c r="D18" s="35">
+        <v>2</v>
+      </c>
+      <c r="E18" s="35">
+        <v>5</v>
+      </c>
+      <c r="F18" s="35">
+        <v>2</v>
+      </c>
+      <c r="G18" s="31">
         <v>1</v>
       </c>
       <c r="R18"/>
     </row>
     <row r="19" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="32">
-        <v>5</v>
-      </c>
-      <c r="D19" s="32">
-        <v>2</v>
-      </c>
-      <c r="E19" s="32">
-        <v>5</v>
-      </c>
-      <c r="F19" s="32">
-        <v>2</v>
-      </c>
-      <c r="G19" s="35">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C19" s="35">
+        <v>4</v>
+      </c>
+      <c r="D19" s="35">
+        <v>3</v>
+      </c>
+      <c r="E19" s="35">
+        <v>4</v>
+      </c>
+      <c r="F19" s="35">
+        <v>3</v>
+      </c>
+      <c r="G19" s="31">
+        <v>1</v>
+      </c>
+      <c r="K19" s="33"/>
       <c r="R19"/>
     </row>
     <row r="20" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="32">
-        <v>6</v>
-      </c>
-      <c r="D20" s="32">
-        <v>1</v>
-      </c>
-      <c r="E20" s="32">
-        <v>6</v>
-      </c>
-      <c r="F20" s="32">
-        <v>1</v>
-      </c>
-      <c r="G20" s="35">
+        <v>27</v>
+      </c>
+      <c r="C20" s="35">
+        <v>4</v>
+      </c>
+      <c r="D20" s="35">
+        <v>3</v>
+      </c>
+      <c r="E20" s="35">
+        <v>4</v>
+      </c>
+      <c r="F20" s="35">
+        <v>3</v>
+      </c>
+      <c r="G20" s="31">
         <v>1</v>
       </c>
       <c r="R20"/>
     </row>
     <row r="21" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="32">
+        <v>30</v>
+      </c>
+      <c r="C21" s="35">
         <v>4</v>
       </c>
-      <c r="D21" s="32">
-        <v>3</v>
-      </c>
-      <c r="E21" s="32">
+      <c r="D21" s="35">
+        <v>3</v>
+      </c>
+      <c r="E21" s="35">
         <v>4</v>
       </c>
-      <c r="F21" s="32">
-        <v>3</v>
-      </c>
-      <c r="G21" s="35">
+      <c r="F21" s="35">
+        <v>3</v>
+      </c>
+      <c r="G21" s="31">
         <v>1</v>
       </c>
       <c r="R21"/>
     </row>
     <row r="22" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="33">
-        <v>5</v>
-      </c>
-      <c r="D22" s="32">
-        <v>2</v>
-      </c>
-      <c r="E22" s="32">
-        <v>5</v>
-      </c>
-      <c r="F22" s="32">
-        <v>2</v>
-      </c>
-      <c r="G22" s="35">
+        <v>28</v>
+      </c>
+      <c r="C22" s="35">
+        <v>4</v>
+      </c>
+      <c r="D22" s="35">
+        <v>3</v>
+      </c>
+      <c r="E22" s="35">
+        <v>4</v>
+      </c>
+      <c r="F22" s="35">
+        <v>3</v>
+      </c>
+      <c r="G22" s="31">
         <v>1</v>
       </c>
       <c r="R22"/>
     </row>
     <row r="23" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="32">
+        <v>29</v>
+      </c>
+      <c r="C23" s="35">
         <v>4</v>
       </c>
-      <c r="D23" s="32">
-        <v>3</v>
-      </c>
-      <c r="E23" s="32">
+      <c r="D23" s="35">
+        <v>3</v>
+      </c>
+      <c r="E23" s="35">
         <v>4</v>
       </c>
-      <c r="F23" s="32">
-        <v>3</v>
-      </c>
-      <c r="G23" s="35">
+      <c r="F23" s="35">
+        <v>3</v>
+      </c>
+      <c r="G23" s="31">
         <v>1</v>
       </c>
       <c r="R23"/>
     </row>
     <row r="24" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="32">
-        <v>5</v>
-      </c>
-      <c r="D24" s="32">
-        <v>2</v>
-      </c>
-      <c r="E24" s="32">
-        <v>5</v>
-      </c>
-      <c r="F24" s="32">
-        <v>2</v>
-      </c>
-      <c r="G24" s="35">
+        <v>26</v>
+      </c>
+      <c r="C24" s="35">
+        <v>3</v>
+      </c>
+      <c r="D24" s="35">
+        <v>1</v>
+      </c>
+      <c r="E24" s="35">
+        <v>3</v>
+      </c>
+      <c r="F24" s="35">
+        <v>1</v>
+      </c>
+      <c r="G24" s="31">
         <v>1</v>
       </c>
       <c r="R24"/>
     </row>
     <row r="25" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="32">
-        <v>3</v>
-      </c>
-      <c r="D25" s="32">
-        <v>2</v>
-      </c>
-      <c r="E25" s="32">
-        <v>3</v>
-      </c>
-      <c r="F25" s="32">
-        <v>2</v>
-      </c>
-      <c r="G25" s="35">
+        <v>20</v>
+      </c>
+      <c r="C25" s="35">
+        <v>7</v>
+      </c>
+      <c r="D25" s="35">
+        <v>4</v>
+      </c>
+      <c r="E25" s="35">
+        <v>7</v>
+      </c>
+      <c r="F25" s="35">
+        <v>4</v>
+      </c>
+      <c r="G25" s="31">
         <v>1</v>
       </c>
       <c r="R25"/>
     </row>
     <row r="26" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="32">
+        <v>21</v>
+      </c>
+      <c r="C26" s="35">
+        <v>6</v>
+      </c>
+      <c r="D26" s="35">
         <v>5</v>
       </c>
-      <c r="D26" s="32">
-        <v>2</v>
-      </c>
-      <c r="E26" s="32">
+      <c r="E26" s="35">
+        <v>6</v>
+      </c>
+      <c r="F26" s="35">
         <v>5</v>
       </c>
-      <c r="F26" s="32">
-        <v>2</v>
-      </c>
-      <c r="G26" s="35">
+      <c r="G26" s="31">
         <v>1</v>
       </c>
       <c r="R26"/>
     </row>
     <row r="27" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="35">
+        <v>10</v>
+      </c>
+      <c r="D27" s="35">
+        <v>1</v>
+      </c>
+      <c r="E27" s="35">
+        <v>10</v>
+      </c>
+      <c r="F27" s="35">
+        <v>1</v>
+      </c>
+      <c r="G27" s="31">
+        <v>1</v>
+      </c>
+      <c r="R27"/>
+    </row>
+    <row r="28" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="35">
+        <v>10</v>
+      </c>
+      <c r="D28" s="35">
+        <v>1</v>
+      </c>
+      <c r="E28" s="35">
+        <v>10</v>
+      </c>
+      <c r="F28" s="35">
+        <v>1</v>
+      </c>
+      <c r="G28" s="31">
+        <v>1</v>
+      </c>
+      <c r="R28"/>
+    </row>
+    <row r="29" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="38"/>
+      <c r="C29" s="35">
+        <v>0</v>
+      </c>
+      <c r="D29" s="35">
+        <v>0</v>
+      </c>
+      <c r="E29" s="35">
+        <v>0</v>
+      </c>
+      <c r="F29" s="35">
+        <v>0</v>
+      </c>
+      <c r="G29" s="31">
+        <v>1</v>
+      </c>
+      <c r="R29"/>
+    </row>
+    <row r="30" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="35">
+        <v>0</v>
+      </c>
+      <c r="D30" s="35">
+        <v>0</v>
+      </c>
+      <c r="E30" s="35">
+        <v>0</v>
+      </c>
+      <c r="F30" s="35">
+        <v>0</v>
+      </c>
+      <c r="G30" s="31">
+        <v>1</v>
+      </c>
+      <c r="R30"/>
+    </row>
+    <row r="31" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="32">
-        <v>3</v>
-      </c>
-      <c r="D27" s="32">
+      <c r="C31" s="35">
+        <v>3</v>
+      </c>
+      <c r="D31" s="35">
+        <v>5</v>
+      </c>
+      <c r="E31" s="35">
+        <v>3</v>
+      </c>
+      <c r="F31" s="35">
+        <v>5</v>
+      </c>
+      <c r="G31" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="35">
+        <v>3</v>
+      </c>
+      <c r="D32" s="35">
+        <v>5</v>
+      </c>
+      <c r="E32" s="35">
+        <v>3</v>
+      </c>
+      <c r="F32" s="35">
+        <v>5</v>
+      </c>
+      <c r="G32" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="35">
+        <v>3</v>
+      </c>
+      <c r="D33" s="35">
+        <v>5</v>
+      </c>
+      <c r="E33" s="35">
+        <v>3</v>
+      </c>
+      <c r="F33" s="35">
+        <v>5</v>
+      </c>
+      <c r="G33" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="35">
+        <v>3</v>
+      </c>
+      <c r="D34" s="35">
+        <v>5</v>
+      </c>
+      <c r="E34" s="35">
+        <v>3</v>
+      </c>
+      <c r="F34" s="35">
+        <v>5</v>
+      </c>
+      <c r="G34" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="35">
+        <v>3</v>
+      </c>
+      <c r="D35" s="35">
+        <v>6</v>
+      </c>
+      <c r="E35" s="35">
+        <v>3</v>
+      </c>
+      <c r="F35" s="35">
+        <v>6</v>
+      </c>
+      <c r="G35" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="35">
+        <v>3</v>
+      </c>
+      <c r="D36" s="35">
+        <v>6</v>
+      </c>
+      <c r="E36" s="35">
+        <v>3</v>
+      </c>
+      <c r="F36" s="35">
+        <v>6</v>
+      </c>
+      <c r="G36" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="35">
+        <v>3</v>
+      </c>
+      <c r="D37" s="35">
+        <v>5</v>
+      </c>
+      <c r="E37" s="35">
+        <v>3</v>
+      </c>
+      <c r="F37" s="35">
+        <v>5</v>
+      </c>
+      <c r="G37" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="35">
+        <v>3</v>
+      </c>
+      <c r="D38" s="35">
+        <v>6</v>
+      </c>
+      <c r="E38" s="35">
+        <v>3</v>
+      </c>
+      <c r="F38" s="35">
+        <v>6</v>
+      </c>
+      <c r="G38" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="35">
+        <v>7</v>
+      </c>
+      <c r="D39" s="35">
         <v>2</v>
       </c>
-      <c r="E27" s="32">
-        <v>3</v>
-      </c>
-      <c r="F27" s="32">
+      <c r="E39" s="35">
+        <v>7</v>
+      </c>
+      <c r="F39" s="35">
         <v>2</v>
       </c>
-      <c r="G27" s="35">
-        <v>1</v>
-      </c>
-      <c r="R27"/>
-    </row>
-    <row r="28" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="32">
-        <v>3</v>
-      </c>
-      <c r="D28" s="32">
-        <v>1</v>
-      </c>
-      <c r="E28" s="32">
-        <v>3</v>
-      </c>
-      <c r="F28" s="32">
-        <v>1</v>
-      </c>
-      <c r="G28" s="35">
-        <v>1</v>
-      </c>
-      <c r="R28"/>
-    </row>
-    <row r="29" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="32">
+      <c r="G39" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="35">
+        <v>6</v>
+      </c>
+      <c r="D40" s="35">
+        <v>2</v>
+      </c>
+      <c r="E40" s="35">
+        <v>6</v>
+      </c>
+      <c r="F40" s="35">
+        <v>2</v>
+      </c>
+      <c r="G40" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="35">
+        <v>7</v>
+      </c>
+      <c r="D41" s="35">
+        <v>2</v>
+      </c>
+      <c r="E41" s="35">
+        <v>7</v>
+      </c>
+      <c r="F41" s="35">
+        <v>2</v>
+      </c>
+      <c r="G41" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="35">
+        <v>7</v>
+      </c>
+      <c r="D42" s="35">
+        <v>3</v>
+      </c>
+      <c r="E42" s="35">
+        <v>7</v>
+      </c>
+      <c r="F42" s="35">
+        <v>3</v>
+      </c>
+      <c r="G42" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="35">
+        <v>3</v>
+      </c>
+      <c r="D43" s="35">
+        <v>5</v>
+      </c>
+      <c r="E43" s="35">
+        <v>3</v>
+      </c>
+      <c r="F43" s="35">
+        <v>5</v>
+      </c>
+      <c r="G43" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="35">
+        <v>3</v>
+      </c>
+      <c r="D44" s="35">
+        <v>8</v>
+      </c>
+      <c r="E44" s="35">
+        <v>3</v>
+      </c>
+      <c r="F44" s="35">
+        <v>8</v>
+      </c>
+      <c r="G44" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="35">
+        <v>3</v>
+      </c>
+      <c r="D45" s="35">
+        <v>1</v>
+      </c>
+      <c r="E45" s="35">
+        <v>3</v>
+      </c>
+      <c r="F45" s="35">
+        <v>1</v>
+      </c>
+      <c r="G45" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="35">
+        <v>0</v>
+      </c>
+      <c r="D46" s="35">
+        <v>0</v>
+      </c>
+      <c r="E46" s="35">
+        <v>0</v>
+      </c>
+      <c r="F46" s="35">
+        <v>0</v>
+      </c>
+      <c r="G46" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="35">
+        <v>0</v>
+      </c>
+      <c r="D47" s="35">
+        <v>0</v>
+      </c>
+      <c r="E47" s="35">
+        <v>0</v>
+      </c>
+      <c r="F47" s="35">
+        <v>0</v>
+      </c>
+      <c r="G47" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="35">
+        <v>3</v>
+      </c>
+      <c r="D48" s="35">
+        <v>6</v>
+      </c>
+      <c r="E48" s="35">
+        <v>3</v>
+      </c>
+      <c r="F48" s="35">
+        <v>6</v>
+      </c>
+      <c r="G48" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="35">
+        <v>3</v>
+      </c>
+      <c r="D49" s="35">
+        <v>1</v>
+      </c>
+      <c r="E49" s="35">
+        <v>3</v>
+      </c>
+      <c r="F49" s="35">
+        <v>1</v>
+      </c>
+      <c r="G49" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="35">
+        <v>3</v>
+      </c>
+      <c r="D50" s="35">
+        <v>1</v>
+      </c>
+      <c r="E50" s="35">
+        <v>3</v>
+      </c>
+      <c r="F50" s="35">
+        <v>1</v>
+      </c>
+      <c r="G50" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="35">
+        <v>3</v>
+      </c>
+      <c r="D51" s="35">
         <v>4</v>
       </c>
-      <c r="D29" s="32">
-        <v>7</v>
-      </c>
-      <c r="E29" s="32">
+      <c r="E51" s="35">
+        <v>3</v>
+      </c>
+      <c r="F51" s="35">
         <v>4</v>
       </c>
-      <c r="F29" s="32">
-        <v>7</v>
-      </c>
-      <c r="G29" s="35">
-        <v>1</v>
-      </c>
-      <c r="R29"/>
-    </row>
-    <row r="30" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="32">
+      <c r="G51" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="35">
+        <v>3</v>
+      </c>
+      <c r="D52" s="35">
+        <v>4</v>
+      </c>
+      <c r="E52" s="35">
+        <v>3</v>
+      </c>
+      <c r="F52" s="35">
+        <v>4</v>
+      </c>
+      <c r="G52" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="35">
         <v>6</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D53" s="35">
+        <v>3</v>
+      </c>
+      <c r="E53" s="35">
+        <v>6</v>
+      </c>
+      <c r="F53" s="35">
+        <v>3</v>
+      </c>
+      <c r="G53" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="35">
+        <v>0</v>
+      </c>
+      <c r="D54" s="35">
+        <v>0</v>
+      </c>
+      <c r="E54" s="35">
+        <v>0</v>
+      </c>
+      <c r="F54" s="35">
+        <v>0</v>
+      </c>
+      <c r="G54" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="35">
+        <v>0</v>
+      </c>
+      <c r="D55" s="35">
+        <v>0</v>
+      </c>
+      <c r="E55" s="35">
+        <v>0</v>
+      </c>
+      <c r="F55" s="35">
+        <v>0</v>
+      </c>
+      <c r="G55" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="35">
+        <v>6</v>
+      </c>
+      <c r="D56" s="35">
+        <v>2</v>
+      </c>
+      <c r="E56" s="35">
+        <v>6</v>
+      </c>
+      <c r="F56" s="35">
+        <v>2</v>
+      </c>
+      <c r="G56" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="35">
+        <v>6</v>
+      </c>
+      <c r="D57" s="35">
+        <v>2</v>
+      </c>
+      <c r="E57" s="35">
+        <v>6</v>
+      </c>
+      <c r="F57" s="35">
+        <v>2</v>
+      </c>
+      <c r="G57" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="35">
+        <v>6</v>
+      </c>
+      <c r="D58" s="35">
+        <v>2</v>
+      </c>
+      <c r="E58" s="35">
+        <v>6</v>
+      </c>
+      <c r="F58" s="35">
+        <v>2</v>
+      </c>
+      <c r="G58" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="35">
+        <v>6</v>
+      </c>
+      <c r="D59" s="35">
+        <v>2</v>
+      </c>
+      <c r="E59" s="35">
+        <v>6</v>
+      </c>
+      <c r="F59" s="35">
+        <v>2</v>
+      </c>
+      <c r="G59" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="35">
+        <v>6</v>
+      </c>
+      <c r="D60" s="35">
+        <v>2</v>
+      </c>
+      <c r="E60" s="35">
+        <v>6</v>
+      </c>
+      <c r="F60" s="35">
+        <v>2</v>
+      </c>
+      <c r="G60" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="35">
+        <v>6</v>
+      </c>
+      <c r="D61" s="35">
+        <v>2</v>
+      </c>
+      <c r="E61" s="35">
+        <v>6</v>
+      </c>
+      <c r="F61" s="35">
+        <v>2</v>
+      </c>
+      <c r="G61" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="35">
+        <v>6</v>
+      </c>
+      <c r="D62" s="35">
+        <v>2</v>
+      </c>
+      <c r="E62" s="35">
+        <v>6</v>
+      </c>
+      <c r="F62" s="35">
+        <v>2</v>
+      </c>
+      <c r="G62" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="35">
+        <v>3</v>
+      </c>
+      <c r="D63" s="35">
+        <v>1</v>
+      </c>
+      <c r="E63" s="35">
+        <v>3</v>
+      </c>
+      <c r="F63" s="35">
+        <v>1</v>
+      </c>
+      <c r="G63" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="35">
+        <v>3</v>
+      </c>
+      <c r="D64" s="35">
+        <v>1</v>
+      </c>
+      <c r="E64" s="35">
+        <v>3</v>
+      </c>
+      <c r="F64" s="35">
+        <v>1</v>
+      </c>
+      <c r="G64" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="35">
+        <v>3</v>
+      </c>
+      <c r="D65" s="35">
+        <v>1</v>
+      </c>
+      <c r="E65" s="35">
+        <v>3</v>
+      </c>
+      <c r="F65" s="35">
+        <v>1</v>
+      </c>
+      <c r="G65" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="35">
+        <v>3</v>
+      </c>
+      <c r="D66" s="35">
+        <v>1</v>
+      </c>
+      <c r="E66" s="35">
+        <v>3</v>
+      </c>
+      <c r="F66" s="35">
+        <v>1</v>
+      </c>
+      <c r="G66" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="35">
+        <v>8</v>
+      </c>
+      <c r="D67" s="35">
+        <v>2</v>
+      </c>
+      <c r="E67" s="35">
+        <v>8</v>
+      </c>
+      <c r="F67" s="35">
+        <v>2</v>
+      </c>
+      <c r="G67" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="35">
+        <v>8</v>
+      </c>
+      <c r="D68" s="35">
+        <v>2</v>
+      </c>
+      <c r="E68" s="35">
+        <v>8</v>
+      </c>
+      <c r="F68" s="35">
+        <v>2</v>
+      </c>
+      <c r="G68" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="35">
+        <v>8</v>
+      </c>
+      <c r="D69" s="35">
+        <v>2</v>
+      </c>
+      <c r="E69" s="35">
+        <v>8</v>
+      </c>
+      <c r="F69" s="35">
+        <v>2</v>
+      </c>
+      <c r="G69" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="35">
+        <v>8</v>
+      </c>
+      <c r="D70" s="35">
+        <v>2</v>
+      </c>
+      <c r="E70" s="35">
+        <v>8</v>
+      </c>
+      <c r="F70" s="35">
+        <v>2</v>
+      </c>
+      <c r="G70" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="35">
+        <v>8</v>
+      </c>
+      <c r="D71" s="35">
+        <v>3</v>
+      </c>
+      <c r="E71" s="35">
+        <v>8</v>
+      </c>
+      <c r="F71" s="35">
+        <v>3</v>
+      </c>
+      <c r="G71" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="35">
+        <v>8</v>
+      </c>
+      <c r="D72" s="35">
+        <v>3</v>
+      </c>
+      <c r="E72" s="35">
+        <v>8</v>
+      </c>
+      <c r="F72" s="35">
+        <v>3</v>
+      </c>
+      <c r="G72" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="35">
+        <v>6</v>
+      </c>
+      <c r="D73" s="35">
+        <v>2</v>
+      </c>
+      <c r="E73" s="35">
+        <v>6</v>
+      </c>
+      <c r="F73" s="35">
+        <v>2</v>
+      </c>
+      <c r="G73" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="35">
+        <v>8</v>
+      </c>
+      <c r="D74" s="35">
+        <v>2</v>
+      </c>
+      <c r="E74" s="35">
+        <v>8</v>
+      </c>
+      <c r="F74" s="35">
+        <v>2</v>
+      </c>
+      <c r="G74" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="35">
+        <v>6</v>
+      </c>
+      <c r="D75" s="35">
+        <v>1</v>
+      </c>
+      <c r="E75" s="35">
+        <v>6</v>
+      </c>
+      <c r="F75" s="35">
+        <v>1</v>
+      </c>
+      <c r="G75" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="35">
+        <v>4</v>
+      </c>
+      <c r="D76" s="35">
+        <v>3</v>
+      </c>
+      <c r="E76" s="35">
+        <v>4</v>
+      </c>
+      <c r="F76" s="35">
+        <v>3</v>
+      </c>
+      <c r="G76" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="35">
+        <v>4</v>
+      </c>
+      <c r="D77" s="35">
+        <v>3</v>
+      </c>
+      <c r="E77" s="35">
+        <v>4</v>
+      </c>
+      <c r="F77" s="35">
+        <v>3</v>
+      </c>
+      <c r="G77" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="35">
+        <v>4</v>
+      </c>
+      <c r="D78" s="35">
+        <v>3</v>
+      </c>
+      <c r="E78" s="35">
+        <v>4</v>
+      </c>
+      <c r="F78" s="35">
+        <v>3</v>
+      </c>
+      <c r="G78" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="35">
+        <v>8</v>
+      </c>
+      <c r="D79" s="35">
+        <v>2</v>
+      </c>
+      <c r="E79" s="35">
+        <v>8</v>
+      </c>
+      <c r="F79" s="35">
+        <v>2</v>
+      </c>
+      <c r="G79" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="35">
+        <v>9</v>
+      </c>
+      <c r="D80" s="35">
+        <v>2</v>
+      </c>
+      <c r="E80" s="35">
+        <v>9</v>
+      </c>
+      <c r="F80" s="35">
+        <v>2</v>
+      </c>
+      <c r="G80" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="35">
+        <v>9</v>
+      </c>
+      <c r="D81" s="35">
+        <v>2</v>
+      </c>
+      <c r="E81" s="35">
+        <v>9</v>
+      </c>
+      <c r="F81" s="35">
+        <v>2</v>
+      </c>
+      <c r="G81" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="31"/>
+    </row>
+    <row r="83" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="35">
+        <v>6</v>
+      </c>
+      <c r="D84" s="35">
         <v>5</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E84" s="35">
         <v>6</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F84" s="35">
         <v>5</v>
       </c>
-      <c r="G30" s="35">
-        <v>1</v>
-      </c>
-      <c r="R30"/>
-    </row>
-    <row r="31" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="32">
-        <v>10</v>
-      </c>
-      <c r="D31" s="32">
-        <v>1</v>
-      </c>
-      <c r="E31" s="32">
-        <v>10</v>
-      </c>
-      <c r="F31" s="32">
-        <v>1</v>
-      </c>
-      <c r="G31" s="35">
-        <v>1</v>
-      </c>
-      <c r="R31"/>
-    </row>
-    <row r="32" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="32">
-        <v>10</v>
-      </c>
-      <c r="D32" s="32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="32">
-        <v>10</v>
-      </c>
-      <c r="F32" s="32">
-        <v>1</v>
-      </c>
-      <c r="G32" s="35">
-        <v>1</v>
-      </c>
-      <c r="R32"/>
-    </row>
-    <row r="33" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33"/>
-      <c r="R33"/>
-    </row>
-    <row r="34" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34"/>
+      <c r="G84" s="31">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2600,69 +6737,610 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H7:Q9 H10 J10:Q10 H11:Q32">
-    <cfRule type="expression" dxfId="33" priority="49">
+  <conditionalFormatting sqref="H7:Q9 H10 J10:Q10 H11:Q28">
+    <cfRule type="expression" dxfId="200" priority="233">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="51">
+    <cfRule type="expression" dxfId="199" priority="235">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="52">
+    <cfRule type="expression" dxfId="198" priority="236">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="53">
+    <cfRule type="expression" dxfId="197" priority="237">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="54">
+    <cfRule type="expression" dxfId="196" priority="238">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="55">
+    <cfRule type="expression" dxfId="195" priority="239">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="59">
+    <cfRule type="expression" dxfId="194" priority="243">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="60">
+    <cfRule type="expression" dxfId="193" priority="244">
       <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:Q33">
-    <cfRule type="expression" dxfId="25" priority="50">
-      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:R4 H5:I5 K5:Q5 H6">
-    <cfRule type="expression" dxfId="24" priority="56">
+    <cfRule type="expression" dxfId="192" priority="240">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:Q6">
-    <cfRule type="expression" dxfId="23" priority="41">
+    <cfRule type="expression" dxfId="191" priority="225">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="42">
+    <cfRule type="expression" dxfId="190" priority="226">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="43">
+    <cfRule type="expression" dxfId="189" priority="227">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="44">
+    <cfRule type="expression" dxfId="188" priority="228">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="45">
+    <cfRule type="expression" dxfId="187" priority="229">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="46">
+    <cfRule type="expression" dxfId="186" priority="230">
       <formula>K$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="47">
+    <cfRule type="expression" dxfId="185" priority="231">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="48">
+    <cfRule type="expression" dxfId="184" priority="232">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
+    <cfRule type="expression" dxfId="183" priority="193">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="194">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="195">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="196">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="197">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="198">
+      <formula>I$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="199">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="200">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="175" priority="185">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="186">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="187">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="188">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="189">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="190">
+      <formula>I$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="191">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="192">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:Q31">
+    <cfRule type="expression" dxfId="167" priority="169">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="170">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="171">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="172">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="173">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="174">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="175">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="176">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:Q32">
+    <cfRule type="expression" dxfId="159" priority="161">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="162">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="163">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="164">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="165">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="166">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="167">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="168">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:Q33">
+    <cfRule type="expression" dxfId="151" priority="153">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="154">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="155">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="156">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="157">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="158">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="159">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="160">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:Q29">
+    <cfRule type="expression" dxfId="143" priority="145">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="146">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="147">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="148">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="149">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="150">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="151">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="152">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:Q30">
+    <cfRule type="expression" dxfId="135" priority="137">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="138">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="139">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="140">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="141">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="142">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="143">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="144">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:Q34">
+    <cfRule type="expression" dxfId="127" priority="129">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="130">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="131">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="132">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="133">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="134">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="135">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="136">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:Q35">
+    <cfRule type="expression" dxfId="119" priority="121">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="122">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="123">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="124">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="125">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="126">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="127">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="128">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:Q36">
+    <cfRule type="expression" dxfId="111" priority="113">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="114">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="115">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="116">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="117">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="118">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="119">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="120">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:Q37">
+    <cfRule type="expression" dxfId="103" priority="105">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="106">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="107">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="108">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="109">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="110">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="111">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="112">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:Q38">
+    <cfRule type="expression" dxfId="95" priority="97">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="98">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="99">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="100">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="101">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="102">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="103">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="104">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:Q39">
+    <cfRule type="expression" dxfId="87" priority="89">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="90">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="91">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="92">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="93">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="94">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="95">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="96">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:Q40">
+    <cfRule type="expression" dxfId="79" priority="81">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="82">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="83">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="84">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="85">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="86">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="87">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="88">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:Q41">
+    <cfRule type="expression" dxfId="71" priority="73">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="74">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="75">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="76">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="77">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="78">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="79">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="80">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:Q42">
+    <cfRule type="expression" dxfId="63" priority="65">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="66">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="67">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="68">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="69">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="70">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="71">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="72">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:Q43">
+    <cfRule type="expression" dxfId="55" priority="57">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="58">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="59">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="60">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="61">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="62">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="63">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="64">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:Q44">
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="50">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="51">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="52">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="53">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="54">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="55">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="56">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:Q45">
+    <cfRule type="expression" dxfId="39" priority="41">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="42">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="43">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="44">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="45">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="46">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="47">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="48">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46:Q47">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="31">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:Q57">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58:Q82">
     <cfRule type="expression" dxfId="15" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2679,7 +7357,7 @@
       <formula>Plan</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="14">
-      <formula>I$4=period_selected</formula>
+      <formula>H$4=period_selected</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
@@ -2688,7 +7366,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="H84:Q84">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2705,7 +7383,7 @@
       <formula>Plan</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>I$4=period_selected</formula>
+      <formula>H$4=period_selected</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
